--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,21 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -79,37 +76,40 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>delicious</t>
   </si>
   <si>
     <t>best</t>
@@ -118,327 +118,318 @@
     <t>thank</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>apples</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
     <t>mas</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>cookies</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easier</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>fan</t>
   </si>
   <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>pot</t>
   </si>
   <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>sharp</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -448,31 +439,37 @@
     <t>got</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>better</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>product</t>
@@ -844,10 +841,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -905,13 +902,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -923,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -947,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -955,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1005,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6521739130434783</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1023,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9247311827956989</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1055,37 +1052,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.575</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K6">
-        <v>0.8984375</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1105,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4339622641509434</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1123,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0.8695652173913043</v>
@@ -1155,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3953488372093023</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1173,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8544891640866873</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L8">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M8">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1205,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1223,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8405797101449275</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1247,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1255,13 +1252,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3535353535353535</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1273,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -1305,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.282051282051282</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1323,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1347,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1355,13 +1352,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1694915254237288</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1405,13 +1402,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1351351351351351</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1423,69 +1420,45 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>0.7662337662337663</v>
-      </c>
-      <c r="L13">
-        <v>59</v>
-      </c>
-      <c r="M13">
-        <v>59</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.08247422680412371</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0.06</v>
-      </c>
-      <c r="F14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>178</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7229437229437229</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L14">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1497,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7111111111111111</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1523,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1549,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6619718309859155</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6474576271186441</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L20">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6428571428571429</v>
+        <v>0.65625</v>
       </c>
       <c r="L22">
-        <v>801</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>801</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>445</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>812</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>812</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L26">
         <v>44</v>
       </c>
-      <c r="K26">
-        <v>0.59375</v>
-      </c>
-      <c r="L26">
-        <v>38</v>
-      </c>
       <c r="M26">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1809,15 +1782,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5921052631578947</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L27">
         <v>45</v>
@@ -1835,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5918367346938775</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1861,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5897435897435898</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1887,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5897435897435898</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1913,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1939,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5873015873015873</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1965,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5865384615384616</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1991,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2017,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5789473684210527</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2043,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5771428571428572</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L36">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2069,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5735294117647058</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2095,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2121,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5692307692307692</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2147,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5389221556886228</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L40">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2173,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5299145299145299</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2199,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.525</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2225,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5151515151515151</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2251,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.51</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2277,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5060240963855421</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2303,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2329,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4897959183673469</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2355,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.4814814814814815</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2381,21 +2354,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4473684210526316</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2407,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.443609022556391</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L50">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M50">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2433,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4390243902439024</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2459,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4262295081967213</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2485,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.4216867469879518</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L53">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2511,21 +2484,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K54">
         <v>0.4210526315789473</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2537,47 +2510,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4130434782608696</v>
+        <v>0.4176904176904177</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>27</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4085603112840467</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L56">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="M56">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2589,21 +2562,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.4042553191489361</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2615,12 +2588,12 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K58">
         <v>0.4032258064516129</v>
@@ -2646,16 +2619,16 @@
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.3928571428571428</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2667,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.3833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2693,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.3823529411764706</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2719,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.3818181818181818</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2745,21 +2718,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.3809523809523809</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2771,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.3725490196078431</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L64">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2797,21 +2770,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>256</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.3720930232558139</v>
+        <v>0.35</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2823,21 +2796,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.3603603603603603</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2849,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67">
         <v>0.3478260869565217</v>
@@ -2880,16 +2853,16 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3453237410071943</v>
+        <v>0.3452054794520548</v>
       </c>
       <c r="L68">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="M68">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2901,21 +2874,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>91</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.3425925925925926</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L69">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2927,21 +2900,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3424657534246575</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L70">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="M70">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2953,21 +2926,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>480</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.3333333333333333</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L71">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2979,21 +2952,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.3062200956937799</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L72">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3005,21 +2978,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.3055555555555556</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3031,21 +3004,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.3007518796992481</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L74">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3057,21 +3030,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.2980132450331126</v>
+        <v>0.3062200956937799</v>
       </c>
       <c r="L75">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M75">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3083,21 +3056,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.2972972972972973</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L76">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M76">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3109,21 +3082,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.297029702970297</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L77">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3135,21 +3108,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.2638888888888889</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3161,21 +3134,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2561894510226049</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L79">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3187,21 +3160,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>691</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2476190476190476</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3213,21 +3186,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2348993288590604</v>
+        <v>0.25</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3239,21 +3212,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="L82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3265,21 +3238,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3291,21 +3264,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.2304635761589404</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L84">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="M84">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3317,21 +3290,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>581</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.2235294117647059</v>
+        <v>0.24</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3343,21 +3316,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.2235294117647059</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3369,21 +3342,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.2173913043478261</v>
+        <v>0.2211920529801324</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3395,47 +3368,47 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>72</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.2142857142857143</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L88">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M88">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N88">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.2105263157894737</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3447,21 +3420,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.2058823529411765</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L90">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="M90">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3473,21 +3446,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>621</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.2051282051282051</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L91">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3499,47 +3472,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.2</v>
+        <v>0.2038461538461538</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>80</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.1943573667711599</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L93">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3551,21 +3524,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>257</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.1890243902439024</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L94">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M94">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3577,73 +3550,73 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1818181818181818</v>
+        <v>0.1983471074380165</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.180327868852459</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L96">
         <v>22</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1756756756756757</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L97">
+        <v>64</v>
+      </c>
+      <c r="M97">
         <v>65</v>
-      </c>
-      <c r="M97">
-        <v>66</v>
       </c>
       <c r="N97">
         <v>0.98</v>
@@ -3655,21 +3628,21 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1743119266055046</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L98">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3681,21 +3654,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1720430107526882</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3712,16 +3685,16 @@
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1692307692307692</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="L100">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M100">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3733,21 +3706,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>108</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1625615763546798</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L101">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3759,47 +3732,47 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>170</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1592592592592593</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L102">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M102">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N102">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O102">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>227</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1575178997613365</v>
+        <v>0.1600877192982456</v>
       </c>
       <c r="L103">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M103">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3811,21 +3784,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>353</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1535087719298246</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="L104">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="M104">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3837,21 +3810,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>386</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1428571428571428</v>
+        <v>0.1575178997613365</v>
       </c>
       <c r="L105">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3863,47 +3836,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>108</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1414634146341463</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L106">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M106">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>352</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1411042944785276</v>
+        <v>0.1435523114355231</v>
       </c>
       <c r="L107">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M107">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3915,21 +3888,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>140</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.140893470790378</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L108">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M108">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3941,15 +3914,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>250</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.1395348837209302</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L109">
         <v>18</v>
@@ -3967,21 +3940,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1374045801526718</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3993,21 +3966,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>113</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.137037037037037</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L111">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4019,21 +3992,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>233</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.1355932203389831</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L112">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4045,21 +4018,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.1340909090909091</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L113">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M113">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4071,21 +4044,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>381</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K114">
-        <v>0.13125</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L114">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M114">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4097,21 +4070,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K115">
-        <v>0.1282051282051282</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L115">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M115">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4123,21 +4096,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K116">
-        <v>0.1260504201680672</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L116">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M116">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4149,21 +4122,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>208</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K117">
         <v>0.1176470588235294</v>
       </c>
       <c r="L117">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4175,21 +4148,21 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K118">
-        <v>0.1118881118881119</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L118">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N118">
         <v>0.9399999999999999</v>
@@ -4201,21 +4174,21 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K119">
-        <v>0.1090909090909091</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L119">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M119">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4227,21 +4200,21 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K120">
-        <v>0.1048387096774194</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L120">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M120">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4253,21 +4226,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K121">
-        <v>0.09803921568627451</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L121">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4279,47 +4252,47 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>138</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K122">
-        <v>0.09740259740259741</v>
+        <v>0.09260991580916744</v>
       </c>
       <c r="L122">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="M122">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>139</v>
+        <v>970</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K123">
-        <v>0.09016393442622951</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L123">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M123">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4331,47 +4304,47 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>333</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K124">
-        <v>0.08785046728971962</v>
+        <v>0.08</v>
       </c>
       <c r="L124">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="M124">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="N124">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>976</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K125">
-        <v>0.08108108108108109</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L125">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4383,73 +4356,73 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>170</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K126">
-        <v>0.08034433285509325</v>
+        <v>0.0705596107055961</v>
       </c>
       <c r="L126">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M126">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N126">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O126">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>641</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K127">
-        <v>0.06598984771573604</v>
+        <v>0.06628242074927954</v>
       </c>
       <c r="L127">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M127">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>368</v>
+        <v>648</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K128">
-        <v>0.06273062730627306</v>
+        <v>0.0625</v>
       </c>
       <c r="L128">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M128">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4461,189 +4434,189 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>508</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K129">
-        <v>0.06168549087749783</v>
+        <v>0.06088560885608856</v>
       </c>
       <c r="L129">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M129">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N129">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>1080</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K130">
-        <v>0.06043956043956044</v>
+        <v>0.05950095969289827</v>
       </c>
       <c r="L130">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M130">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N130">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O130">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>342</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K131">
-        <v>0.05882352941176471</v>
+        <v>0.05892547660311959</v>
       </c>
       <c r="L131">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M131">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131">
-        <v>256</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K132">
-        <v>0.05780346820809248</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="L132">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M132">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N132">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O132">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>489</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K133">
-        <v>0.0558252427184466</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="L133">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M133">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N133">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="O133">
-        <v>0.07999999999999996</v>
+        <v>0.21</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>389</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K134">
-        <v>0.0547945205479452</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="L134">
+        <v>15</v>
+      </c>
+      <c r="M134">
         <v>20</v>
       </c>
-      <c r="M134">
-        <v>26</v>
-      </c>
       <c r="N134">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O134">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>345</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K135">
-        <v>0.03149606299212598</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="L135">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M135">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N135">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O135">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
